--- a/report/reliability/comb/Instituto de Computação - IC-Graduação (bacharelado).xlsx
+++ b/report/reliability/comb/Instituto de Computação - IC-Graduação (bacharelado).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1016,11 +1016,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2227,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3395,6 +3395,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3423,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3438,6 +3438,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,14 +3454,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3468,6 +3468,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,20 +3484,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,20 +3513,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3554,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3569,6 +3569,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,14 +3585,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3599,6 +3599,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,20 +3615,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,19 +3644,19 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3683,14 +3684,13 @@
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3699,6 +3699,7 @@
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3714,14 +3715,13 @@
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3729,6 +3729,7 @@
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3744,20 +3745,20 @@
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3773,14 +3774,13 @@
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4122,31 +4122,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7481621339332343</v>
+        <v>0.7224229227495422</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7490279620795967</v>
+        <v>0.7358826501221006</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9020298164449602</v>
+        <v>0.8896710464017851</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.1991728860006932</v>
+        <v>0.18843222659720354</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>2.9845076299581774</v>
+        <v>2.786195796914884</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.05473481591946047</v>
+        <v>0.05569968270371851</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.837121212121212</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7059534908329078</v>
+        <v>0.6144786239798463</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.14076874534068706</v>
+        <v>0.12094690275880397</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4196,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7282281567346135</v>
+        <v>0.7100050105007303</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7207210266877626</v>
+        <v>0.7285947429205002</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8764003705497678</v>
+        <v>0.8698742487097954</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.19002398693334274</v>
+        <v>0.19617243672039433</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.580649084104113</v>
+        <v>2.6845270086536317</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.059234961895518655</v>
+        <v>0.058014653108025255</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.06140069754925581</v>
+        <v>0.0776767216611848</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.12599084545540237</v>
+        <v>0.11367736125348994</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4225,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7358242149274976</v>
+        <v>0.7218209641990861</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7313458914595711</v>
+        <v>0.7396601195627758</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8781990949251798</v>
+        <v>0.8755804778605507</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.19838267756057498</v>
+        <v>0.20526734888885934</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.72225835455449</v>
+        <v>2.8411325929802365</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.05733733409591466</v>
+        <v>0.05517081182295753</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.060641843943294</v>
+        <v>0.07753240500360906</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.16600082889937523</v>
+        <v>0.13710183956278701</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4254,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7179659562294379</v>
+        <v>0.6991102825911961</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7156840204591973</v>
+        <v>0.6916209983077095</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8741114750996967</v>
+        <v>0.8621616170366166</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.18622281106144148</v>
+        <v>0.16935762990792533</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.517213494700842</v>
+        <v>2.242762945960338</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.06083226122143597</v>
+        <v>0.061605402408901264</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.05848730887641723</v>
+        <v>0.06049104686783447</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.12599084545540237</v>
+        <v>0.11758729833117416</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4283,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.720228976568788</v>
+        <v>0.6651851436423033</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.71388244780148</v>
+        <v>0.6940201449855642</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8706533262575002</v>
+        <v>0.8632987695247571</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.18488733385382122</v>
+        <v>0.17094940461045435</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.495066948238672</v>
+        <v>2.2681890118315815</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.05960136359066647</v>
+        <v>0.06923704951058274</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05541061790252163</v>
+        <v>0.060383826772376886</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.12608842956410335</v>
+        <v>0.11758729833117416</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4312,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.724343804091825</v>
+        <v>0.6514157014157015</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7337804730773154</v>
+        <v>0.6863703465702783</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8670085044140503</v>
+        <v>0.8592638623271751</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2003662882870332</v>
+        <v>0.1659383801134792</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.7562984637502557</v>
+        <v>2.188474014062195</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.059934596376009425</v>
+        <v>0.073111913559711</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.05597765062290381</v>
+        <v>0.05991127463131526</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.16600082889937523</v>
+        <v>0.11758729833117416</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4341,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.712246425335802</v>
+        <v>0.7252123032819879</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7248573421309307</v>
+        <v>0.7360445344318929</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8617640341011956</v>
+        <v>0.8904181934919415</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.1932217856130659</v>
+        <v>0.20223477981927881</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.6344782293840616</v>
+        <v>2.7885178768612184</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.06298916630616239</v>
+        <v>0.05648915331213314</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05625576669183611</v>
+        <v>0.07571833495617643</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.13710183956278701</v>
+        <v>0.12599084545540237</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4370,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7516387096774194</v>
+        <v>0.720603334215401</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.755160942533465</v>
+        <v>0.7294158756085848</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8905870687969</v>
+        <v>0.8736354151978434</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2189893882907244</v>
+        <v>0.19682868951994487</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.0843156739266613</v>
+        <v>2.6957083208379355</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.05396337303745212</v>
+        <v>0.05439322814998321</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.06046103463154286</v>
+        <v>0.07644996265179693</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.1892388385477614</v>
+        <v>0.12599084545540237</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4399,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7756418657294336</v>
+        <v>0.7530833233807078</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.777366897872727</v>
+        <v>0.7544460700826698</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9012452918862479</v>
+        <v>0.8870974205013769</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.24094455675725082</v>
+        <v>0.21832947183183887</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.4916950374627023</v>
+        <v>3.07242515050224</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.049443140227872974</v>
+        <v>0.04843484118148247</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05274402783121055</v>
+        <v>0.07046382286010315</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.20631677704341642</v>
+        <v>0.13710183956278701</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4428,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7264956651933405</v>
+        <v>0.6899787257865861</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7277300203707374</v>
+        <v>0.7118988028832222</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8941135204167948</v>
+        <v>0.8795246169702187</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.19548447637262376</v>
+        <v>0.18343123086760665</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.672825044324216</v>
+        <v>2.4710025852293267</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.06008720917937014</v>
+        <v>0.062411390480790134</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.060491961698996136</v>
+        <v>0.07459364657230327</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.12608842956410335</v>
+        <v>0.11251193015927359</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4457,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7456280407072853</v>
+        <v>0.7227925611556851</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7523894900189126</v>
+        <v>0.744779608998181</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9056098258650712</v>
+        <v>0.8941580828737394</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2164461281852059</v>
+        <v>0.2096669076056411</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.0386007850651415</v>
+        <v>2.918182227034017</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.05631584574005287</v>
+        <v>0.05633021658536331</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.0628813492267188</v>
+        <v>0.07824626204021812</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.16600082889937523</v>
+        <v>0.13710183956278701</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4486,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.708579465541491</v>
+        <v>0.6803108994734381</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7048636277811948</v>
+        <v>0.6933014302685975</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8772327443808632</v>
+        <v>0.862356994508292</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.17838490135017976</v>
+        <v>0.1704705848182542</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.3882641860848994</v>
+        <v>2.2605303665933945</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.06295468382217034</v>
+        <v>0.062377342654802596</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.06005027248508702</v>
+        <v>0.07647695129824508</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.11758729833117416</v>
+        <v>0.1078290637219119</v>
       </c>
     </row>
     <row r="22">
@@ -4515,28 +4515,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7139539853265903</v>
+        <v>0.6778589874774643</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7163508448272574</v>
+        <v>0.6963893052748801</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8833094020421923</v>
+        <v>0.866654331049183</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.18672029774305426</v>
+        <v>0.17253985446276582</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.525482032163991</v>
+        <v>2.2936916168429775</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.0624768274709169</v>
+        <v>0.06436943883036639</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.06066629292142909</v>
+        <v>0.07596364603896884</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.12608842956410335</v>
+        <v>0.10830156094672463</v>
       </c>
     </row>
     <row r="23">
@@ -4586,16 +4586,16 @@
         <v>44.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.5432788148076574</v>
+        <v>0.4263306037063275</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.5969806763157093</v>
+        <v>0.4359196353033794</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.5728058803355094</v>
+        <v>0.39197677906181533</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.46294874343181636</v>
+        <v>0.320388869084521</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.659090909090909</v>
@@ -4612,16 +4612,16 @@
         <v>44.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.45281619009174034</v>
+        <v>0.32057760526574725</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5226867001681761</v>
+        <v>0.35354250767576983</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.49659826064165</v>
+        <v>0.30159734464532567</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.3564612869236896</v>
+        <v>0.19782269648082862</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.295454545454546</v>
@@ -4638,22 +4638,22 @@
         <v>44.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6095642450214197</v>
+        <v>0.7439857653888905</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6307664068988643</v>
+        <v>0.67879463202512</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6241814506378626</v>
+        <v>0.7148485827386308</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.48698902772466984</v>
+        <v>0.7165936843114058</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.409090909090909</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.4194362100263744</v>
+        <v>0.4239151057857213</v>
       </c>
     </row>
     <row r="30">
@@ -4664,22 +4664,22 @@
         <v>44.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6015755207148702</v>
+        <v>0.7336782307901588</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6426364372939678</v>
+        <v>0.6643771395418735</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6434941637188583</v>
+        <v>0.6992200518562328</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4652615193268842</v>
+        <v>0.5779691004730702</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.840909090909091</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.5393018927828082</v>
+        <v>1.8613403068336407</v>
       </c>
     </row>
     <row r="31">
@@ -4690,22 +4690,22 @@
         <v>44.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6136054493119755</v>
+        <v>0.7782395635224854</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5050559091065532</v>
+        <v>0.7097644722490204</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.525774310903547</v>
+        <v>0.7482627444296687</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4463789837907888</v>
+        <v>0.6377373336326694</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.9772727272727273</v>
+        <v>1.0</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.8613403068336407</v>
+        <v>1.904706532971467</v>
       </c>
     </row>
     <row r="32">
@@ -4716,22 +4716,22 @@
         <v>44.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6730743143485342</v>
+        <v>0.25104472659593213</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5685579018129723</v>
+        <v>0.38100998890671134</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5929694597794813</v>
+        <v>0.30746091893218247</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5183089890888867</v>
+        <v>0.23174363070062787</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.0</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.904706532971467</v>
+        <v>0.15075567228888181</v>
       </c>
     </row>
     <row r="33">
@@ -4742,16 +4742,16 @@
         <v>44.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.29374267758370337</v>
+        <v>0.3539623511275115</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3395294876644549</v>
+        <v>0.4299756284099436</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.28629746697012043</v>
+        <v>0.38456437899959994</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.1726283459831418</v>
+        <v>0.21804698817799012</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>3.2954545454545454</v>
@@ -4768,16 +4768,16 @@
         <v>44.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.11146273919445122</v>
+        <v>0.1537570581803707</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.14438687082288634</v>
+        <v>0.23523238561738777</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.06845121486577921</v>
+        <v>0.1687757846826454</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>-0.038871738596866365</v>
+        <v>-0.018934166936559665</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>3.6818181818181817</v>
@@ -4794,16 +4794,16 @@
         <v>44.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5692951747697739</v>
+        <v>0.6146587450533838</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5484465828496697</v>
+        <v>0.5513230522054123</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4974119289979483</v>
+        <v>0.5001859807213687</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.42095321317276446</v>
+        <v>0.451322984190345</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>2.0681818181818183</v>
@@ -4820,16 +4820,16 @@
         <v>44.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.33467914585671593</v>
+        <v>0.30073448152130045</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.3621345718867108</v>
+        <v>0.3136935236279487</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.2722467729536178</v>
+        <v>0.2167968947776686</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.23537726065922399</v>
+        <v>0.1838920347050171</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>3.022727272727273</v>
@@ -4846,16 +4846,16 @@
         <v>44.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6780994249239171</v>
+        <v>0.6452744543256551</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7004315617782491</v>
+        <v>0.6687140477386849</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.691076746396461</v>
+        <v>0.6591558933308008</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5856095483182101</v>
+        <v>0.5290241356045505</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.5681818181818183</v>
@@ -4872,16 +4872,16 @@
         <v>44.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6363822905304896</v>
+        <v>0.6575462557267169</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6263446301750026</v>
+        <v>0.6499716468837415</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6057206910969665</v>
+        <v>0.634709836032038</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5297653602057033</v>
+        <v>0.537291166077779</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.227272727272727</v>
@@ -4986,22 +4986,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.06818181818181818</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06818181818181818</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.022727272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.29545454545454547</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.3181818181818182</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.22727272727272727</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5012,22 +5012,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.06818181818181818</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.022727272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.06818181818181818</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.22727272727272727</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="F46" t="n" s="113">
         <v>0.06818181818181818</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5454545454545454</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5050,10 +5050,10 @@
         <v>0.045454545454545456</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.06818181818181818</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.11363636363636363</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5064,22 +5064,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.7727272727272727</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.045454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.045454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.13636363636363635</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5317,31 +5317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8330779679434936</v>
+        <v>0.870527953152164</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8451414255302376</v>
+        <v>0.992782477031106</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8765243407221914</v>
+        <v>0.9892328157400005</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5770554652939967</v>
+        <v>0.9786555393631285</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.457504877750637</v>
+        <v>137.55168931360367</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.0369769283730982</v>
+        <v>0.003333003997220662</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.8011363636363638</v>
+        <v>0.7348484848484849</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0066343090394378</v>
+        <v>1.3876151076950676</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5622951512726758</v>
+        <v>0.9792723619986214</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5388,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8181941923774954</v>
+        <v>0.9884286306584751</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8170177976492949</v>
+        <v>0.9885612095360139</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8186694356813137</v>
+        <v>0.977381151342359</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5981252475081069</v>
+        <v>0.9773811513423591</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.465012373626329</v>
+        <v>86.42183040666757</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.04090243688822959</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.04604087590895865</v>
-      </c>
+        <v>0.0034683893119632886</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5868497891538313</v>
+        <v>0.9773811513423591</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8214219674556213</v>
+        <v>0.5868968222832485</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8269161886590042</v>
+        <v>0.9895276474327928</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8000246563291084</v>
+        <v>0.9792723619986214</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6142743108109564</v>
+        <v>0.9792723619986214</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.777547837965503</v>
+        <v>94.48952764743304</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03889222043476735</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.03180676882903597</v>
-      </c>
+        <v>0.011762208617800793</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5377405133915203</v>
+        <v>0.9792723619986214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7569985198532724</v>
+        <v>0.5955799979631327</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8006050318223943</v>
+        <v>0.989548447286098</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7371495080748043</v>
+        <v>0.9793131047484052</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5723554416673236</v>
+        <v>0.9793131047484049</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.015171692343195</v>
+        <v>94.67956335041578</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.05851569687304678</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.006263095352343775</v>
-      </c>
+        <v>0.011798136618415686</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5868497891538313</v>
+        <v>0.979313104748405</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7277989449003517</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7671965957664157</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7101115184030979</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5234668611896</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.2954698334077888</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.06986056403017113</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.01626050658524151</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5377405133915203</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,283 +5478,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>44.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9877802817506546</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9932875387548868</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9885466721656826</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9848767866460747</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4239151057857213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>44.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7486465369001394</v>
+        <v>0.9940581184814473</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8071881134425591</v>
+        <v>0.9926526015529235</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7148370658678961</v>
+        <v>0.986994408896282</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6231130306605144</v>
+        <v>0.9807646194117098</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.659090909090909</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.887724601600928</v>
+        <v>1.8613403068336407</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>44.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.740439289472702</v>
+        <v>0.9942896002118484</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7925304577524048</v>
+        <v>0.9926389229669541</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7145412128696323</v>
+        <v>0.9869591292810523</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.5995012728745408</v>
+        <v>0.9808023523450355</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.295454545454546</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9542937350572706</v>
+        <v>1.904706532971467</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>44.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8761221267253888</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8305780113042932</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8046223644699221</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7356680341140597</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.409090909090909</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.4194362100263744</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>44.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.9171360393006196</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8749516053873893</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8604678569088878</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.8018389955776134</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.840909090909091</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.5393018927828082</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
         <v>0.045454545454545456</v>
       </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
       <c r="E27" t="n" s="227">
-        <v>0.3409090909090909</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4772727272727273</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1590909090909091</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.29545454545454547</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5814,7 +5715,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
+      <c r="A1" t="s" s="231">
         <v>45</v>
       </c>
     </row>
@@ -5829,66 +5730,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.6735238095238094</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.6802269216260095</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.5154120301226892</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.5154120301226892</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>2.127217604073756</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.09646049809140471</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>3.4886363636363638</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.0200811433959804</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.5154120301226891</v>
+      <c r="A6" t="n" s="260">
+        <v>0.5741912798874823</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.7340332049045781</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.649408325885954</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.47915471636935286</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>2.7598678423042484</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.0691155933485084</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.6515151515151514</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.7078538567052038</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.4754507258196463</v>
       </c>
     </row>
     <row r="7">
@@ -5902,86 +5803,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n" s="287">
+        <v>0.6735238095238094</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.6802269216260095</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.5154120301226892</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.5154120301226892</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>2.127217604073756</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.09646049809140471</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
+        <v>0.5154120301226891</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
-        <v>0.5154120301226891</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.5154120301226891</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.26564956079519186</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.5154120301226891</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.5154120301226891</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.5154120301226891</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="B12" t="n" s="287">
+        <v>0.1890866647213305</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.6174491401371967</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.44660139316572345</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.44660139316572334</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>1.6140315051406144</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.051427472557050304</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.4466013931657233</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.26564956079519186</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.5154120301226891</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.26564956079519186</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.5154120301226891</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="287">
+        <v>0.23237179487179493</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.6444820114958738</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.47545072581964676</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.4754507258196463</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>1.8127971926472402</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.05679139306587386</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.4754507258196463</v>
       </c>
     </row>
     <row r="14">
@@ -5990,174 +5921,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="298">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n" s="313">
+        <v>44.0</v>
+      </c>
+      <c r="C18" t="n" s="314">
+        <v>0.5778410528720149</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.7929829957939252</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.6161092988443945</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.5275685116784178</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.15075567228888181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B19" t="n" s="313">
         <v>44.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8453711615415632</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.870463103790933</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6249246318228626</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.5154120301226892</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C19" t="n" s="314">
+        <v>0.845923791996288</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.8213722702041465</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.6817603992140543</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.5402905366309717</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>3.2954545454545454</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.0692215263005322</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
+      <c r="B20" t="n" s="313">
         <v>44.0</v>
       </c>
-      <c r="C18" t="n" s="315">
-        <v>0.8934754684368299</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.870463103790933</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.6249246318228626</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.5154120301226892</v>
-      </c>
-      <c r="G18" t="n" s="319">
+      <c r="C20" t="n" s="314">
+        <v>0.8900908147662262</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.8094698717163052</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.6553909990438468</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.5384184425762031</v>
+      </c>
+      <c r="G20" t="n" s="318">
         <v>3.6818181818181817</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="319">
         <v>1.2717453173571638</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="323">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="337">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="337">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="337">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="337">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="337">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="337">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.022727272727272728</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.022727272727272728</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.06818181818181818</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.045454545454545456</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.38636363636363635</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.4090909090909091</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.06818181818181818</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="338">
         <v>0.022727272727272728</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.045454545454545456</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.13636363636363635</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.09090909090909091</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.4318181818181818</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.2727272727272727</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,7 +6175,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
+      <c r="A1" t="s" s="346">
         <v>46</v>
       </c>
     </row>
@@ -6202,66 +6190,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.8628965517241378</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8634942266633916</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.7597798857882647</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.7597798857882645</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>6.325697481923409</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.04121949355019566</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.397727272727273</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.1987374436355045</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.7597798857882646</v>
+      <c r="A6" t="n" s="375">
+        <v>0.7816527672479152</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.7828969000081718</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.6432461637912419</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.6432461637912419</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>3.606106499804195</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.06554201849742612</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>3.977272727272727</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.8349526198404527</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.6432461637912418</v>
       </c>
     </row>
     <row r="7">
@@ -6275,81 +6263,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.7597798857882646</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.7597798857882646</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.5772654748484287</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.7597798857882646</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7597798857882646</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.7597798857882646</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.6432461637912418</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.6432461637912418</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.4137656272321495</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.6432461637912418</v>
+      </c>
+      <c r="F11" s="406"/>
+      <c r="G11" s="407"/>
+      <c r="H11" t="n" s="408">
+        <v>0.6432461637912418</v>
+      </c>
+      <c r="I11" t="n" s="409">
+        <v>0.6432461637912418</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.5772654748484287</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.7597798857882646</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.5772654748484287</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.7597798857882646</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.4137656272321495</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.6432461637912418</v>
+      </c>
+      <c r="D12" s="404"/>
+      <c r="E12" s="405"/>
+      <c r="F12" s="406"/>
+      <c r="G12" s="407"/>
+      <c r="H12" t="n" s="408">
+        <v>0.4137656272321495</v>
+      </c>
+      <c r="I12" t="n" s="409">
+        <v>0.6432461637912418</v>
       </c>
     </row>
     <row r="13">
@@ -6363,84 +6351,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
+      <c r="A15" t="s" s="413">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="B16" t="s" s="427">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+      <c r="C16" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="D16" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="E16" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="F16" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="G16" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H16" t="s" s="427">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+      <c r="A17" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n" s="428">
         <v>44.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9348255329466774</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9380244894959471</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8176323625678883</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7597798857882648</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.5681818181818183</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2463477299083832</v>
+      <c r="C17" t="n" s="429">
+        <v>0.8991949663523788</v>
+      </c>
+      <c r="D17" t="n" s="430">
+        <v>0.9064342678295105</v>
+      </c>
+      <c r="E17" t="n" s="431">
+        <v>0.7269841095317668</v>
+      </c>
+      <c r="F17" t="n" s="432">
+        <v>0.6432461637912418</v>
+      </c>
+      <c r="G17" t="n" s="433">
+        <v>3.659090909090909</v>
+      </c>
+      <c r="H17" t="n" s="434">
+        <v>0.887724601600928</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="A18" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>44.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9411454615644731</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9380244894959471</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8176323625678883</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.7597798857882647</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>2.227272727272727</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.3094226734876526</v>
+      <c r="C18" t="n" s="429">
+        <v>0.9134166078978483</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.9064342678295105</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.7269841095317665</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.6432461637912418</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>4.295454545454546</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.9542937350572706</v>
       </c>
     </row>
     <row r="19">
@@ -6454,74 +6442,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="439">
+      <c r="A21" t="s" s="438">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="453">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="453">
+      <c r="B22" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C22" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D22" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E22" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F22" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="452">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="A23" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n" s="453">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="C23" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D23" t="n" s="455">
+        <v>0.3409090909090909</v>
+      </c>
+      <c r="E23" t="n" s="456">
+        <v>0.4772727272727273</v>
+      </c>
+      <c r="F23" t="n" s="457">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="G23" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
+      <c r="A24" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="453">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n" s="454">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="D24" t="n" s="455">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="E24" t="n" s="456">
         <v>0.1590909090909091</v>
       </c>
-      <c r="C24" t="n" s="455">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="F24" t="n" s="457">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="G24" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6551,7 +6539,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
+      <c r="A1" t="s" s="460">
         <v>47</v>
       </c>
     </row>
@@ -6566,66 +6554,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9884286306584751</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9885612095360139</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.977381151342359</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9773811513423591</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>86.42183040666757</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0034683893119632886</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.9886363636363636</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.8723466073838515</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9773811513423591</v>
+      <c r="A6" t="n" s="489">
+        <v>0.545078196872125</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.6078080472807339</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.43658350854100747</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.4365835085410077</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>1.5497718478578968</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.11421252613412614</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>2.5454545454545454</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.0719368571855397</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.4365835085410076</v>
       </c>
     </row>
     <row r="7">
@@ -6639,81 +6627,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9773811513423591</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9773811513423591</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9552739149993154</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9773811513423591</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9773811513423591</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9773811513423591</v>
+      <c r="A11" t="s" s="511">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.4365835085410076</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.4365835085410076</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.19060515992997584</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.4365835085410076</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.4365835085410076</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.4365835085410076</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9552739149993154</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9773811513423591</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9552739149993154</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9773811513423591</v>
+      <c r="A12" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.19060515992997584</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.4365835085410076</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.19060515992997584</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.4365835085410076</v>
       </c>
     </row>
     <row r="13">
@@ -6727,84 +6715,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
+      <c r="A15" t="s" s="527">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
+      <c r="B16" t="s" s="541">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="542">
+      <c r="C16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="D16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="E16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="F16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="537">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n" s="542">
         <v>44.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.994197483606025</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9943292088997383</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.983019599586314</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9773811513423593</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.9772727272727273</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.8613403068336407</v>
+      <c r="C17" t="n" s="543">
+        <v>0.9256106006474026</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.8475209462134277</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.55999494125884</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.43658350854100775</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>2.0681818181818183</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.5906372464815137</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n" s="542">
         <v>44.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9944594260535388</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9943292088997383</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.983019599586314</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9773811513423593</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.0</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.904706532971467</v>
+      <c r="C18" t="n" s="543">
+        <v>0.7446085655501257</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.8475209462134277</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.55999494125884</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.43658350854100764</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>3.022727272727273</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>0.9019007412935625</v>
       </c>
     </row>
     <row r="19">
@@ -6818,65 +6806,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
+      <c r="A21" t="s" s="552">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
+      <c r="B22" t="s" s="566">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="567">
+      <c r="C22" t="s" s="566">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s" s="566">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="F22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s" s="567">
+      <c r="G22" t="s" s="566">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="562">
+        <v>26</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="G23" t="n" s="572">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n" s="567">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n" s="568">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D24" t="n" s="569">
         <v>0.11363636363636363</v>
       </c>
-      <c r="F23" t="n" s="572">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="F24" t="n" s="572">
+      <c r="E24" t="n" s="570">
+        <v>0.4772727272727273</v>
+      </c>
+      <c r="F24" t="n" s="571">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6956,31 +6953,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="603">
-        <v>0.545078196872125</v>
+        <v>0.8628965517241378</v>
       </c>
       <c r="B6" t="n" s="604">
-        <v>0.6078080472807339</v>
+        <v>0.8634942266633916</v>
       </c>
       <c r="C6" t="n" s="605">
-        <v>0.43658350854100747</v>
+        <v>0.7597798857882647</v>
       </c>
       <c r="D6" t="n" s="606">
-        <v>0.4365835085410077</v>
+        <v>0.7597798857882645</v>
       </c>
       <c r="E6" t="n" s="607">
-        <v>1.5497718478578968</v>
+        <v>6.325697481923409</v>
       </c>
       <c r="F6" t="n" s="608">
-        <v>0.11421252613412614</v>
+        <v>0.04121949355019566</v>
       </c>
       <c r="G6" t="n" s="609">
-        <v>2.5454545454545454</v>
+        <v>2.397727272727273</v>
       </c>
       <c r="H6" t="n" s="610">
-        <v>1.0719368571855397</v>
+        <v>1.1987374436355045</v>
       </c>
       <c r="I6" t="n" s="611">
-        <v>0.4365835085410076</v>
+        <v>0.7597798857882646</v>
       </c>
     </row>
     <row r="7">
@@ -7027,48 +7024,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="625">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n" s="630">
-        <v>0.4365835085410076</v>
+        <v>0.7597798857882646</v>
       </c>
       <c r="C11" t="n" s="631">
-        <v>0.4365835085410076</v>
+        <v>0.7597798857882646</v>
       </c>
       <c r="D11" t="n" s="632">
-        <v>0.19060515992997584</v>
+        <v>0.5772654748484287</v>
       </c>
       <c r="E11" t="n" s="633">
-        <v>0.4365835085410076</v>
+        <v>0.7597798857882646</v>
       </c>
       <c r="F11" s="634"/>
       <c r="G11" s="635"/>
       <c r="H11" t="n" s="636">
-        <v>0.4365835085410076</v>
+        <v>0.7597798857882646</v>
       </c>
       <c r="I11" t="n" s="637">
-        <v>0.4365835085410076</v>
+        <v>0.7597798857882646</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="625">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="n" s="630">
-        <v>0.19060515992997584</v>
+        <v>0.5772654748484287</v>
       </c>
       <c r="C12" t="n" s="631">
-        <v>0.4365835085410076</v>
+        <v>0.7597798857882646</v>
       </c>
       <c r="D12" s="632"/>
       <c r="E12" s="633"/>
       <c r="F12" s="634"/>
       <c r="G12" s="635"/>
       <c r="H12" t="n" s="636">
-        <v>0.19060515992997584</v>
+        <v>0.5772654748484287</v>
       </c>
       <c r="I12" t="n" s="637">
-        <v>0.4365835085410076</v>
+        <v>0.7597798857882646</v>
       </c>
     </row>
     <row r="13">
@@ -7112,54 +7109,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="651">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n" s="656">
         <v>44.0</v>
       </c>
       <c r="C17" t="n" s="657">
-        <v>0.9256106006474026</v>
+        <v>0.9348255329466774</v>
       </c>
       <c r="D17" t="n" s="658">
-        <v>0.8475209462134277</v>
+        <v>0.9380244894959471</v>
       </c>
       <c r="E17" t="n" s="659">
-        <v>0.55999494125884</v>
+        <v>0.8176323625678883</v>
       </c>
       <c r="F17" t="n" s="660">
-        <v>0.43658350854100775</v>
+        <v>0.7597798857882648</v>
       </c>
       <c r="G17" t="n" s="661">
-        <v>2.0681818181818183</v>
+        <v>2.5681818181818183</v>
       </c>
       <c r="H17" t="n" s="662">
-        <v>1.5906372464815137</v>
+        <v>1.2463477299083832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="651">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n" s="656">
         <v>44.0</v>
       </c>
       <c r="C18" t="n" s="657">
-        <v>0.7446085655501257</v>
+        <v>0.9411454615644731</v>
       </c>
       <c r="D18" t="n" s="658">
-        <v>0.8475209462134277</v>
+        <v>0.9380244894959471</v>
       </c>
       <c r="E18" t="n" s="659">
-        <v>0.55999494125884</v>
+        <v>0.8176323625678883</v>
       </c>
       <c r="F18" t="n" s="660">
-        <v>0.43658350854100764</v>
+        <v>0.7597798857882647</v>
       </c>
       <c r="G18" t="n" s="661">
-        <v>3.022727272727273</v>
+        <v>2.227272727272727</v>
       </c>
       <c r="H18" t="n" s="662">
-        <v>0.9019007412935625</v>
+        <v>1.3094226734876526</v>
       </c>
     </row>
     <row r="19">
@@ -7200,22 +7197,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="676">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n" s="681">
-        <v>0.29545454545454547</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="C23" t="n" s="682">
-        <v>0.09090909090909091</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="D23" t="n" s="683">
-        <v>0.09090909090909091</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="E23" t="n" s="684">
-        <v>0.29545454545454547</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F23" t="n" s="685">
-        <v>0.22727272727272727</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G23" t="n" s="686">
         <v>0.0</v>
@@ -7223,22 +7220,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="676">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n" s="681">
-        <v>0.0</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="C24" t="n" s="682">
-        <v>0.09090909090909091</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D24" t="n" s="683">
-        <v>0.11363636363636363</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="E24" t="n" s="684">
-        <v>0.4772727272727273</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="F24" t="n" s="685">
-        <v>0.3181818181818182</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="G24" t="n" s="686">
         <v>0.0</v>
@@ -7320,31 +7317,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="717">
-        <v>0.7887637798597711</v>
+        <v>0.7733987406182419</v>
       </c>
       <c r="B6" t="n" s="718">
-        <v>0.796640395435621</v>
+        <v>0.7879723331012453</v>
       </c>
       <c r="C6" t="n" s="719">
-        <v>0.9107067307420219</v>
+        <v>0.8976374282655601</v>
       </c>
       <c r="D6" t="n" s="720">
-        <v>0.28147485626034613</v>
+        <v>0.29225061118571194</v>
       </c>
       <c r="E6" t="n" s="721">
-        <v>3.9173974454863907</v>
+        <v>3.7163656263666245</v>
       </c>
       <c r="F6" t="n" s="722">
-        <v>0.04781029006293222</v>
+        <v>0.04643031185681669</v>
       </c>
       <c r="G6" t="n" s="723">
-        <v>2.706818181818182</v>
+        <v>2.227272727272727</v>
       </c>
       <c r="H6" t="n" s="724">
-        <v>0.8258604328489497</v>
+        <v>0.7845605119622996</v>
       </c>
       <c r="I6" t="n" s="725">
-        <v>0.22408322630095276</v>
+        <v>0.21257682394983815</v>
       </c>
     </row>
     <row r="7">
@@ -7391,292 +7388,268 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="739">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="744">
-        <v>0.7734888390528841</v>
+        <v>0.7551913585994972</v>
       </c>
       <c r="C11" t="n" s="745">
-        <v>0.7753471146017342</v>
+        <v>0.7450664119435384</v>
       </c>
       <c r="D11" t="n" s="746">
-        <v>0.8944997921524565</v>
+        <v>0.8659707219076039</v>
       </c>
       <c r="E11" t="n" s="747">
-        <v>0.277184583261264</v>
+        <v>0.2675729990103615</v>
       </c>
       <c r="F11" t="n" s="748">
-        <v>3.45131162338376</v>
+        <v>2.922590222903558</v>
       </c>
       <c r="G11" t="n" s="749">
-        <v>0.05168318150639942</v>
+        <v>0.05223988679973599</v>
       </c>
       <c r="H11" t="n" s="750">
-        <v>0.05325203676219292</v>
+        <v>0.05460786312316054</v>
       </c>
       <c r="I11" t="n" s="751">
-        <v>0.22558150408512798</v>
+        <v>0.21039771824061743</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="739">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="744">
-        <v>0.7832203375412569</v>
+        <v>0.7254837263598155</v>
       </c>
       <c r="C12" t="n" s="745">
-        <v>0.7892016153275503</v>
+        <v>0.7473435158026829</v>
       </c>
       <c r="D12" t="n" s="746">
-        <v>0.8943083244325968</v>
+        <v>0.8670638231181192</v>
       </c>
       <c r="E12" t="n" s="747">
-        <v>0.2937780716609787</v>
+        <v>0.26993598222010845</v>
       </c>
       <c r="F12" t="n" s="748">
-        <v>3.743869368609518</v>
+        <v>2.957943146311774</v>
       </c>
       <c r="G12" t="n" s="749">
-        <v>0.04952368379693837</v>
+        <v>0.057022791075127345</v>
       </c>
       <c r="H12" t="n" s="750">
-        <v>0.047478460516745195</v>
+        <v>0.05417350385632135</v>
       </c>
       <c r="I12" t="n" s="751">
-        <v>0.2306333341690056</v>
+        <v>0.21257682394983815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="739">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="744">
-        <v>0.7640549411753481</v>
+        <v>0.7095828743834107</v>
       </c>
       <c r="C13" t="n" s="745">
-        <v>0.7688915460035284</v>
+        <v>0.7369875311309311</v>
       </c>
       <c r="D13" t="n" s="746">
-        <v>0.8811319304830053</v>
+        <v>0.8618882695783839</v>
       </c>
       <c r="E13" t="n" s="747">
-        <v>0.26989374212214945</v>
+        <v>0.25940334032626733</v>
       </c>
       <c r="F13" t="n" s="748">
-        <v>3.3269728246949675</v>
+        <v>2.802101110642833</v>
       </c>
       <c r="G13" t="n" s="749">
-        <v>0.052632429938019795</v>
+        <v>0.061575732825701564</v>
       </c>
       <c r="H13" t="n" s="750">
-        <v>0.05028919702886079</v>
+        <v>0.05559545650216112</v>
       </c>
       <c r="I13" t="n" s="751">
-        <v>0.22077922065356081</v>
+        <v>0.20849588275263714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="739">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="744">
-        <v>0.7664163152396797</v>
+        <v>0.7670160539102558</v>
       </c>
       <c r="C14" t="n" s="745">
-        <v>0.7665707355649478</v>
+        <v>0.7814032238440921</v>
       </c>
       <c r="D14" t="n" s="746">
-        <v>0.876055060924468</v>
+        <v>0.8836394512158346</v>
       </c>
       <c r="E14" t="n" s="747">
-        <v>0.2673368261284408</v>
+        <v>0.30883337019150414</v>
       </c>
       <c r="F14" t="n" s="748">
-        <v>3.283953010005878</v>
+        <v>3.5746328815333435</v>
       </c>
       <c r="G14" t="n" s="749">
-        <v>0.05108331955026108</v>
+        <v>0.047655365361954735</v>
       </c>
       <c r="H14" t="n" s="750">
-        <v>0.046188204503143586</v>
+        <v>0.0865225403698454</v>
       </c>
       <c r="I14" t="n" s="751">
-        <v>0.21251897779552173</v>
+        <v>0.2524834381785239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="739">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="744">
-        <v>0.7609673395114996</v>
+        <v>0.7827557634025357</v>
       </c>
       <c r="C15" t="n" s="745">
-        <v>0.7678254362807756</v>
+        <v>0.801815569649752</v>
       </c>
       <c r="D15" t="n" s="746">
-        <v>0.8858514014583871</v>
+        <v>0.8885480633359318</v>
       </c>
       <c r="E15" t="n" s="747">
-        <v>0.26871504660266227</v>
+        <v>0.33586838197254026</v>
       </c>
       <c r="F15" t="n" s="748">
-        <v>3.3071040340548663</v>
+        <v>4.045805052559967</v>
       </c>
       <c r="G15" t="n" s="749">
-        <v>0.05385962103467002</v>
+        <v>0.044467832848723465</v>
       </c>
       <c r="H15" t="n" s="750">
-        <v>0.05215871635733662</v>
+        <v>0.07411808520354474</v>
       </c>
       <c r="I15" t="n" s="751">
-        <v>0.21251897779552173</v>
+        <v>0.2627284633829179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="739">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="n" s="744">
-        <v>0.7649119604594343</v>
+        <v>0.7366267413766513</v>
       </c>
       <c r="C16" t="n" s="745">
-        <v>0.776940639110345</v>
+        <v>0.7548821731728046</v>
       </c>
       <c r="D16" t="n" s="746">
-        <v>0.8938747614502844</v>
+        <v>0.8880003728410352</v>
       </c>
       <c r="E16" t="n" s="747">
-        <v>0.2790259099498326</v>
+        <v>0.2779568757773167</v>
       </c>
       <c r="F16" t="n" s="748">
-        <v>3.4831115628215645</v>
+        <v>3.079670634094623</v>
       </c>
       <c r="G16" t="n" s="749">
-        <v>0.05372629813103686</v>
+        <v>0.05313879348533929</v>
       </c>
       <c r="H16" t="n" s="750">
-        <v>0.05248567175068666</v>
+        <v>0.09017508286630198</v>
       </c>
       <c r="I16" t="n" s="751">
-        <v>0.21251897779552173</v>
+        <v>0.170990514398823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="739">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="744">
-        <v>0.7736991384889178</v>
+        <v>0.7757349620386624</v>
       </c>
       <c r="C17" t="n" s="745">
-        <v>0.7882096406216107</v>
+        <v>0.7988399407701777</v>
       </c>
       <c r="D17" t="n" s="746">
-        <v>0.8723014409060598</v>
+        <v>0.9069989363879792</v>
       </c>
       <c r="E17" t="n" s="747">
-        <v>0.29254461220193534</v>
+        <v>0.33172757305824524</v>
       </c>
       <c r="F17" t="n" s="748">
-        <v>3.721650234387572</v>
+        <v>3.9711657663488533</v>
       </c>
       <c r="G17" t="n" s="749">
-        <v>0.05083073679396547</v>
+        <v>0.04680437682364316</v>
       </c>
       <c r="H17" t="n" s="750">
-        <v>0.041859227638609456</v>
+        <v>0.08315836595021094</v>
       </c>
       <c r="I17" t="n" s="751">
-        <v>0.23213161195318083</v>
+        <v>0.23732480707369713</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="739">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="744">
-        <v>0.7612166435740955</v>
+        <v>0.7477639905256831</v>
       </c>
       <c r="C18" t="n" s="745">
-        <v>0.7787124723245489</v>
+        <v>0.7656721333416131</v>
       </c>
       <c r="D18" t="n" s="746">
-        <v>0.8673077460677021</v>
+        <v>0.8687195557627264</v>
       </c>
       <c r="E18" t="n" s="747">
-        <v>0.28109317044706583</v>
+        <v>0.2899949111843286</v>
       </c>
       <c r="F18" t="n" s="748">
-        <v>3.5190075125546105</v>
+        <v>3.2675248755532884</v>
       </c>
       <c r="G18" t="n" s="749">
-        <v>0.05396027278205944</v>
+        <v>0.049260504540030545</v>
       </c>
       <c r="H18" t="n" s="750">
-        <v>0.04464471220394539</v>
+        <v>0.08221085029355898</v>
       </c>
       <c r="I18" t="n" s="751">
-        <v>0.22558150408512798</v>
+        <v>0.21257682394983815</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="739">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="744">
-        <v>0.7667162504877096</v>
+        <v>0.7430399999999999</v>
       </c>
       <c r="C19" t="n" s="745">
-        <v>0.7751999265698376</v>
+        <v>0.7647699655806859</v>
       </c>
       <c r="D19" t="n" s="746">
-        <v>0.9035398800492378</v>
+        <v>0.8727043615805892</v>
       </c>
       <c r="E19" t="n" s="747">
-        <v>0.27701535300156466</v>
+        <v>0.28896206693073506</v>
       </c>
       <c r="F19" t="n" s="748">
-        <v>3.448397123458525</v>
+        <v>3.251157818637349</v>
       </c>
       <c r="G19" t="n" s="749">
-        <v>0.05329902288061465</v>
+        <v>0.051857420335135206</v>
       </c>
       <c r="H19" t="n" s="750">
-        <v>0.057252747904664524</v>
+        <v>0.08258074497368864</v>
       </c>
       <c r="I19" t="n" s="751">
-        <v>0.2173212612270889</v>
+        <v>0.20849588275263714</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.7872968023547513</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.8003518443765111</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.916295399522718</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.3081612472275678</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>4.008811610991654</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.049452572802985574</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.0549661438829714</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.23732480707369713</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7685,356 +7658,377 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1</v>
+      <c r="A22" t="s" s="755">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23"/>
+      <c r="B23" t="s" s="769">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="769">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="769">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="769">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="769">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="769">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="769">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="769">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="769">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="769">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="769">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="769">
-        <v>10</v>
+      <c r="A24" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="770">
+        <v>44.0</v>
+      </c>
+      <c r="C24" t="n" s="771">
+        <v>0.7734017150809421</v>
+      </c>
+      <c r="D24" t="n" s="772">
+        <v>0.7350724741399208</v>
+      </c>
+      <c r="E24" t="n" s="773">
+        <v>0.7703649150374542</v>
+      </c>
+      <c r="F24" t="n" s="774">
+        <v>0.7475065317570627</v>
+      </c>
+      <c r="G24" t="n" s="775">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="H24" t="n" s="776">
+        <v>0.4239151057857213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="765">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="770">
         <v>44.0</v>
       </c>
       <c r="C25" t="n" s="771">
-        <v>0.5583613837513625</v>
+        <v>0.7662496545045903</v>
       </c>
       <c r="D25" t="n" s="772">
-        <v>0.6203970358060961</v>
+        <v>0.7230011773409312</v>
       </c>
       <c r="E25" t="n" s="773">
-        <v>0.5788585458951644</v>
+        <v>0.7573196712230584</v>
       </c>
       <c r="F25" t="n" s="774">
-        <v>0.477515054983517</v>
+        <v>0.6161432900241766</v>
       </c>
       <c r="G25" t="n" s="775">
-        <v>3.659090909090909</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H25" t="n" s="776">
-        <v>0.887724601600928</v>
+        <v>1.8613403068336407</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="765">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="770">
         <v>44.0</v>
       </c>
       <c r="C26" t="n" s="771">
-        <v>0.44295841624051174</v>
+        <v>0.8161622745893121</v>
       </c>
       <c r="D26" t="n" s="772">
-        <v>0.5199003925086464</v>
+        <v>0.7768071654044885</v>
       </c>
       <c r="E26" t="n" s="773">
-        <v>0.47964563847415675</v>
+        <v>0.8150227819468465</v>
       </c>
       <c r="F26" t="n" s="774">
-        <v>0.3430304999272521</v>
+        <v>0.6870834650220342</v>
       </c>
       <c r="G26" t="n" s="775">
-        <v>4.295454545454546</v>
+        <v>1.0</v>
       </c>
       <c r="H26" t="n" s="776">
-        <v>0.9542937350572706</v>
+        <v>1.904706532971467</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="765">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n" s="770">
         <v>44.0</v>
       </c>
       <c r="C27" t="n" s="771">
-        <v>0.6323975271878186</v>
+        <v>0.4514503810852222</v>
       </c>
       <c r="D27" t="n" s="772">
-        <v>0.6645532158476939</v>
+        <v>0.5242939190873018</v>
       </c>
       <c r="E27" t="n" s="773">
-        <v>0.654168908199517</v>
+        <v>0.45472265931218125</v>
       </c>
       <c r="F27" t="n" s="774">
-        <v>0.5110137079592711</v>
+        <v>0.34291211955959017</v>
       </c>
       <c r="G27" t="n" s="775">
-        <v>3.409090909090909</v>
+        <v>3.659090909090909</v>
       </c>
       <c r="H27" t="n" s="776">
-        <v>1.4194362100263744</v>
+        <v>0.887724601600928</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="765">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="n" s="770">
         <v>44.0</v>
       </c>
       <c r="C28" t="n" s="771">
-        <v>0.6265169686185983</v>
+        <v>0.3120273185218258</v>
       </c>
       <c r="D28" t="n" s="772">
-        <v>0.6800388972409865</v>
+        <v>0.38618559490330395</v>
       </c>
       <c r="E28" t="n" s="773">
-        <v>0.6777437624086463</v>
+        <v>0.31094553369895567</v>
       </c>
       <c r="F28" t="n" s="774">
-        <v>0.4917138635898744</v>
+        <v>0.18302837255243914</v>
       </c>
       <c r="G28" t="n" s="775">
-        <v>3.840909090909091</v>
+        <v>4.295454545454546</v>
       </c>
       <c r="H28" t="n" s="776">
-        <v>1.5393018927828082</v>
+        <v>0.9542937350572706</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="765">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n" s="770">
         <v>44.0</v>
       </c>
       <c r="C29" t="n" s="771">
-        <v>0.6513635515399389</v>
+        <v>0.6975021875802049</v>
       </c>
       <c r="D29" t="n" s="772">
-        <v>0.6716918560374346</v>
+        <v>0.6820264525427231</v>
       </c>
       <c r="E29" t="n" s="773">
-        <v>0.6500945576540189</v>
+        <v>0.6114767351094779</v>
       </c>
       <c r="F29" t="n" s="774">
-        <v>0.5505839772777252</v>
+        <v>0.5502643605042579</v>
       </c>
       <c r="G29" t="n" s="775">
-        <v>2.5681818181818183</v>
+        <v>2.0681818181818183</v>
       </c>
       <c r="H29" t="n" s="776">
-        <v>1.2463477299083832</v>
+        <v>1.5906372464815137</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="765">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n" s="770">
         <v>44.0</v>
       </c>
       <c r="C30" t="n" s="771">
-        <v>0.6221867459654883</v>
+        <v>0.3686631445571898</v>
       </c>
       <c r="D30" t="n" s="772">
-        <v>0.6092452425871163</v>
+        <v>0.40733891211105133</v>
       </c>
       <c r="E30" t="n" s="773">
-        <v>0.5753672140078065</v>
+        <v>0.2872218030986618</v>
       </c>
       <c r="F30" t="n" s="774">
-        <v>0.509568040047522</v>
+        <v>0.2508999352986198</v>
       </c>
       <c r="G30" t="n" s="775">
-        <v>2.227272727272727</v>
+        <v>3.022727272727273</v>
       </c>
       <c r="H30" t="n" s="776">
-        <v>1.3094226734876526</v>
+        <v>0.9019007412935625</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="765">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n" s="770">
         <v>44.0</v>
       </c>
       <c r="C31" t="n" s="771">
-        <v>0.6309662964678314</v>
+        <v>0.615354013241239</v>
       </c>
       <c r="D31" t="n" s="772">
-        <v>0.5273707044943691</v>
+        <v>0.6205301635824851</v>
       </c>
       <c r="E31" t="n" s="773">
-        <v>0.5462636148662746</v>
+        <v>0.5921876570439076</v>
       </c>
       <c r="F31" t="n" s="774">
-        <v>0.46329653566231105</v>
+        <v>0.4864274652490064</v>
       </c>
       <c r="G31" t="n" s="775">
-        <v>0.9772727272727273</v>
+        <v>2.5681818181818183</v>
       </c>
       <c r="H31" t="n" s="776">
-        <v>1.8613403068336407</v>
+        <v>1.2463477299083832</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="765">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n" s="770">
         <v>44.0</v>
       </c>
       <c r="C32" t="n" s="771">
-        <v>0.6948557752844007</v>
+        <v>0.6452782945150818</v>
       </c>
       <c r="D32" t="n" s="772">
-        <v>0.5967251060257812</v>
+        <v>0.625806447172157</v>
       </c>
       <c r="E32" t="n" s="773">
-        <v>0.6192104745329682</v>
+        <v>0.5937010896147478</v>
       </c>
       <c r="F32" t="n" s="774">
-        <v>0.5423377194741307</v>
+        <v>0.5157046026125565</v>
       </c>
       <c r="G32" t="n" s="775">
-        <v>1.0</v>
+        <v>2.227272727272727</v>
       </c>
       <c r="H32" t="n" s="776">
-        <v>1.904706532971467</v>
+        <v>1.3094226734876526</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>44.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.6298746538703421</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.6214219603207287</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.5589400781586307</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.4905842680685792</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>2.0681818181818183</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.5906372464815137</v>
+      <c r="A33" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>44.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.3900669922438903</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.4327902665615934</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.3322517370696142</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.2917512185110677</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>3.022727272727273</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>0.9019007412935625</v>
+      <c r="A34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35" t="s" s="780">
+        <v>36</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
+      <c r="A36"/>
+      <c r="B36" t="s" s="794">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="794">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="794">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="794">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="794">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="794">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="794">
+        <v>43</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="795">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="C37" t="n" s="796">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="D37" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="794">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="794">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="794">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="794">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="794">
-        <v>43</v>
+      <c r="A38" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="795">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="C38" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D38" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="798">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="F38" t="n" s="799">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="G38" t="n" s="800">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="H38" t="n" s="801">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="790">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="n" s="795">
-        <v>0.0</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C39" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="798">
         <v>0.045454545454545456</v>
       </c>
-      <c r="D39" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="798">
-        <v>0.3409090909090909</v>
-      </c>
       <c r="F39" t="n" s="799">
-        <v>0.4772727272727273</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="G39" t="n" s="800">
         <v>0.13636363636363635</v>
@@ -8045,25 +8039,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="790">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n" s="795">
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="796">
-        <v>0.0</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="D40" t="n" s="797">
-        <v>0.045454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="798">
-        <v>0.20454545454545456</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="F40" t="n" s="799">
-        <v>0.1590909090909091</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="G40" t="n" s="800">
-        <v>0.5909090909090909</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="H40" t="n" s="801">
         <v>0.0</v>
@@ -8071,25 +8065,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="790">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="n" s="795">
-        <v>0.06818181818181818</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n" s="796">
-        <v>0.06818181818181818</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="797">
-        <v>0.022727272727272728</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="E41" t="n" s="798">
-        <v>0.29545454545454547</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="F41" t="n" s="799">
-        <v>0.3181818181818182</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="G41" t="n" s="800">
-        <v>0.22727272727272727</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="H41" t="n" s="801">
         <v>0.0</v>
@@ -8097,25 +8091,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="790">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B42" t="n" s="795">
-        <v>0.06818181818181818</v>
+        <v>0.29545454545454547</v>
       </c>
       <c r="C42" t="n" s="796">
-        <v>0.022727272727272728</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D42" t="n" s="797">
-        <v>0.06818181818181818</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E42" t="n" s="798">
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="F42" t="n" s="799">
         <v>0.22727272727272727</v>
       </c>
-      <c r="F42" t="n" s="799">
-        <v>0.06818181818181818</v>
-      </c>
       <c r="G42" t="n" s="800">
-        <v>0.5454545454545454</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="801">
         <v>0.0</v>
@@ -8123,22 +8117,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="790">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n" s="795">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n" s="796">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D43" t="n" s="797">
         <v>0.11363636363636363</v>
       </c>
-      <c r="C43" t="n" s="796">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="D43" t="n" s="797">
+      <c r="E43" t="n" s="798">
+        <v>0.4772727272727273</v>
+      </c>
+      <c r="F43" t="n" s="799">
         <v>0.3181818181818182</v>
-      </c>
-      <c r="E43" t="n" s="798">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="F43" t="n" s="799">
-        <v>0.2727272727272727</v>
       </c>
       <c r="G43" t="n" s="800">
         <v>0.0</v>
@@ -8149,22 +8143,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="790">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n" s="795">
-        <v>0.1590909090909091</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="C44" t="n" s="796">
-        <v>0.06818181818181818</v>
+        <v>0.022727272727272728</v>
       </c>
       <c r="D44" t="n" s="797">
-        <v>0.36363636363636365</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="E44" t="n" s="798">
-        <v>0.20454545454545456</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F44" t="n" s="799">
-        <v>0.20454545454545456</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G44" t="n" s="800">
         <v>0.0</v>
@@ -8175,105 +8169,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="790">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B45" t="n" s="795">
-        <v>0.7727272727272727</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="C45" t="n" s="796">
-        <v>0.0</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D45" t="n" s="797">
-        <v>0.0</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="E45" t="n" s="798">
-        <v>0.045454545454545456</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="F45" t="n" s="799">
-        <v>0.06818181818181818</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="G45" t="n" s="800">
-        <v>0.11363636363636363</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.29545454545454547</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.29545454545454547</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.0</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.4772727272727273</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
